--- a/Documentation/time_log.xlsx
+++ b/Documentation/time_log.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kunij_000\Documents\GitHub\Collections\Documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Adlaf" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
   <si>
     <t>Date:</t>
   </si>
@@ -38,6 +43,51 @@
   </si>
   <si>
     <t>Stop time:</t>
+  </si>
+  <si>
+    <t>11:59PM</t>
+  </si>
+  <si>
+    <t>10:00:00AM</t>
+  </si>
+  <si>
+    <t>12:00:00AM</t>
+  </si>
+  <si>
+    <t>4:00AM</t>
+  </si>
+  <si>
+    <t>12:00PM</t>
+  </si>
+  <si>
+    <t>11:59AM</t>
+  </si>
+  <si>
+    <t>3:00PM</t>
+  </si>
+  <si>
+    <t>6:00PM</t>
+  </si>
+  <si>
+    <t>7:00PM</t>
+  </si>
+  <si>
+    <t>Creating Item and Collection classes</t>
+  </si>
+  <si>
+    <t>Creating ORM and information in database for testing</t>
+  </si>
+  <si>
+    <t>Attempting to implement connection between MySQL database</t>
+  </si>
+  <si>
+    <t>""; not successful, code programmed would not run on Tomcat Server</t>
+  </si>
+  <si>
+    <t>4:00PM</t>
+  </si>
+  <si>
+    <t>Becoming familiar with Eclipse ADT and Java EE</t>
   </si>
 </sst>
 </file>
@@ -73,8 +123,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -84,6 +137,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -132,7 +188,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -167,7 +223,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -378,9 +434,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,16 +576,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
@@ -561,6 +617,97 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>41595</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>41596</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>41618</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>41619</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>41620</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Documentation/time_log.xlsx
+++ b/Documentation/time_log.xlsx
@@ -1,28 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kunij_000\Documents\GitHub\Collections\Documentation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050" activeTab="3"/>
+    <workbookView xWindow="-132" yWindow="-120" windowWidth="8928" windowHeight="11244"/>
   </bookViews>
   <sheets>
-    <sheet name="Adlaf" sheetId="1" r:id="rId1"/>
-    <sheet name="Block" sheetId="2" r:id="rId2"/>
-    <sheet name="Fairley" sheetId="3" r:id="rId3"/>
-    <sheet name="Scissum" sheetId="4" r:id="rId4"/>
+    <sheet name="Scissum" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Date:</t>
   </si>
@@ -87,7 +79,52 @@
     <t>4:00PM</t>
   </si>
   <si>
-    <t>Becoming familiar with Eclipse ADT and Java EE</t>
+    <t>5:00AM</t>
+  </si>
+  <si>
+    <t>5:00PM</t>
+  </si>
+  <si>
+    <t>6:15PM</t>
+  </si>
+  <si>
+    <t>Team meeting</t>
+  </si>
+  <si>
+    <t>Becoming familiar with Eclipse ADT, create and install 'hello world' app</t>
+  </si>
+  <si>
+    <t>Team meeting; Installed Tomcat</t>
+  </si>
+  <si>
+    <t>2:30PM</t>
+  </si>
+  <si>
+    <t>Researching Android-to-server communications and Android ADT</t>
+  </si>
+  <si>
+    <t>Lines of code written(est)</t>
+  </si>
+  <si>
+    <t>Hours spent</t>
+  </si>
+  <si>
+    <t>Lines/hr</t>
+  </si>
+  <si>
+    <t>7:00AM</t>
+  </si>
+  <si>
+    <t>Updating documentation: data-flow diagram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:10PM </t>
+  </si>
+  <si>
+    <t>2:50PM</t>
+  </si>
+  <si>
+    <t>Creating time log</t>
   </si>
 </sst>
 </file>
@@ -188,7 +225,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -223,7 +260,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -432,25 +469,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K12:K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.44140625" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,240 +510,301 @@
       <c r="G1" t="s">
         <v>4</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>41588</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>2.5</v>
+      </c>
+      <c r="L2">
+        <f>J2/K2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>41592</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1.25</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L11" si="0">J3/K3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>41595</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>41596</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>41599</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6">
+        <v>50</v>
+      </c>
+      <c r="K6">
+        <v>1.25</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>41618</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7">
+        <v>15</v>
+      </c>
+      <c r="K7">
+        <v>12</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>41619</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>11</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>0.72727272727272729</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>41620</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>41620</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>41595</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>41596</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>41618</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>41619</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E5">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>41620</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f>4/5</f>
+        <v>0.8</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L13">
+        <f>AVERAGE(L2:L11)</f>
+        <v>4.5977272727272727</v>
       </c>
     </row>
   </sheetData>
